--- a/testout_top_timing_tran_halffreq_post_tsmc2ff_meas.xlsx
+++ b/testout_top_timing_tran_halffreq_post_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="129">
   <si>
     <t>Process</t>
   </si>
@@ -250,6 +250,9 @@
     <t>3.00000e00</t>
   </si>
   <si>
+    <t>error</t>
+  </si>
+  <si>
     <t>tsmc2ff (1)</t>
   </si>
   <si>
@@ -371,6 +374,9 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>Max</t>
@@ -419,25 +425,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
+      <color rgb="FF000000 "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000 "/>
+      <color rgb="FFFFFFFF "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -447,13 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
+        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
+        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,12 +482,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,50 +1044,50 @@
       <c r="S2" t="s">
         <v>77</v>
       </c>
-      <c r="T2">
-        <v>315.626</v>
-      </c>
-      <c r="U2">
-        <v>319.262</v>
-      </c>
-      <c r="V2">
-        <v>317.444</v>
-      </c>
-      <c r="W2">
-        <v>319.853</v>
-      </c>
-      <c r="X2">
-        <v>323.302</v>
-      </c>
-      <c r="Y2">
-        <v>321.578</v>
-      </c>
-      <c r="Z2">
-        <v>221.921</v>
-      </c>
-      <c r="AA2">
-        <v>224.681</v>
-      </c>
-      <c r="AB2">
-        <v>223.301</v>
-      </c>
-      <c r="AC2" s="2">
+      <c r="T2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="3">
         <v>57.3138</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="3">
         <v>54.4603</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="3">
         <v>58.5226</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="3">
         <v>55.9967</v>
       </c>
-      <c r="AG2" s="2">
-        <v>246.556</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>-153.654</v>
+      <c r="AG2" s="4">
+        <v>47.1532</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>-153.862</v>
       </c>
       <c r="AI2">
         <v>5.14622</v>
@@ -1088,11 +1101,11 @@
       <c r="AL2">
         <v>5.1741</v>
       </c>
-      <c r="AM2" s="3">
-        <v>0.832893</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>-1.33647</v>
+      <c r="AM2">
+        <v>4.35506</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>-1.33467</v>
       </c>
       <c r="AO2">
         <v>51.9341</v>
@@ -1169,106 +1182,106 @@
     </row>
     <row r="3" spans="1:64">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3">
-        <v>330.022</v>
-      </c>
-      <c r="U3">
-        <v>333.296</v>
-      </c>
-      <c r="V3">
-        <v>331.659</v>
-      </c>
-      <c r="W3">
-        <v>334.284</v>
-      </c>
-      <c r="X3">
-        <v>337.446</v>
-      </c>
-      <c r="Y3">
-        <v>335.865</v>
-      </c>
-      <c r="Z3">
-        <v>236.266</v>
-      </c>
-      <c r="AA3">
-        <v>238.54</v>
-      </c>
-      <c r="AB3">
-        <v>237.403</v>
-      </c>
-      <c r="AC3" s="2">
+        <v>94</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC3" s="3">
         <v>55.6461</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="3">
         <v>52.1934</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="3">
         <v>56.818</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="3">
         <v>53.6314</v>
       </c>
-      <c r="AG3" s="2">
-        <v>246.139</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>-154.409</v>
+      <c r="AG3" s="4">
+        <v>46.6165</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>45.0219</v>
       </c>
       <c r="AI3">
         <v>5.48286</v>
@@ -1282,11 +1295,11 @@
       <c r="AL3">
         <v>5.60966</v>
       </c>
-      <c r="AM3" s="3">
-        <v>0.872654</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>-1.39107</v>
+      <c r="AM3">
+        <v>4.60769</v>
+      </c>
+      <c r="AN3">
+        <v>4.77089</v>
       </c>
       <c r="AO3">
         <v>51.8658</v>
@@ -1363,106 +1376,106 @@
     </row>
     <row r="4" spans="1:64">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T4">
-        <v>428.55</v>
-      </c>
-      <c r="U4">
-        <v>437.572</v>
-      </c>
-      <c r="V4">
-        <v>433.061</v>
-      </c>
-      <c r="W4">
-        <v>432.817</v>
-      </c>
-      <c r="X4">
-        <v>441.5240000000001</v>
-      </c>
-      <c r="Y4">
-        <v>437.17</v>
-      </c>
-      <c r="Z4">
-        <v>337.434</v>
-      </c>
-      <c r="AA4">
-        <v>340.716</v>
-      </c>
-      <c r="AB4">
-        <v>339.075</v>
-      </c>
-      <c r="AC4" s="2">
+        <v>98</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="3">
         <v>57.1507</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="3">
         <v>58.3999</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="3">
         <v>58.6095</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="3">
         <v>60.2372</v>
       </c>
-      <c r="AG4" s="2">
-        <v>246.488</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>-154.35</v>
+      <c r="AG4" s="5">
+        <v>-152.862</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>45.7566</v>
       </c>
       <c r="AI4">
         <v>5.6909</v>
@@ -1476,11 +1489,11 @@
       <c r="AL4">
         <v>5.32841</v>
       </c>
-      <c r="AM4" s="3">
-        <v>0.884553</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>-1.41258</v>
+      <c r="AM4" s="5">
+        <v>-1.42633</v>
+      </c>
+      <c r="AN4">
+        <v>4.76504</v>
       </c>
       <c r="AO4">
         <v>54.5876</v>
@@ -1557,106 +1570,106 @@
     </row>
     <row r="5" spans="1:64">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5">
-        <v>443.444</v>
-      </c>
-      <c r="U5">
-        <v>452.303</v>
-      </c>
-      <c r="V5">
-        <v>447.874</v>
-      </c>
-      <c r="W5">
-        <v>447.699</v>
-      </c>
-      <c r="X5">
-        <v>456.26</v>
-      </c>
-      <c r="Y5">
-        <v>451.98</v>
-      </c>
-      <c r="Z5">
-        <v>350.098</v>
-      </c>
-      <c r="AA5">
-        <v>357.456</v>
-      </c>
-      <c r="AB5">
-        <v>353.777</v>
-      </c>
-      <c r="AC5" s="2">
+        <v>101</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" s="3">
         <v>57.9549</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="3">
         <v>59.4282</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="3">
         <v>59.4901</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="3">
         <v>61.3126</v>
       </c>
-      <c r="AG5" s="2">
-        <v>248.823</v>
+      <c r="AG5" s="4">
+        <v>48.9879</v>
       </c>
       <c r="AH5" s="3">
-        <v>-149.854</v>
+        <v>50.2804</v>
       </c>
       <c r="AI5">
         <v>4.89698</v>
@@ -1670,11 +1683,11 @@
       <c r="AL5">
         <v>4.57145</v>
       </c>
-      <c r="AM5" s="3">
-        <v>0.802577</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>-1.33262</v>
+      <c r="AM5">
+        <v>4.07651</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>3.97171</v>
       </c>
       <c r="AO5">
         <v>54.5147</v>
@@ -1751,106 +1764,106 @@
     </row>
     <row r="6" spans="1:64">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6">
-        <v>451.507</v>
-      </c>
-      <c r="U6">
-        <v>461.724</v>
-      </c>
-      <c r="V6">
-        <v>456.615</v>
-      </c>
-      <c r="W6">
-        <v>455.653</v>
-      </c>
-      <c r="X6">
-        <v>465.575</v>
-      </c>
-      <c r="Y6">
-        <v>460.614</v>
-      </c>
-      <c r="Z6">
-        <v>357.786</v>
-      </c>
-      <c r="AA6">
-        <v>367.057</v>
-      </c>
-      <c r="AB6">
-        <v>362.422</v>
-      </c>
-      <c r="AC6" s="2">
+        <v>94</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC6" s="3">
         <v>57.9464</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="3">
         <v>57.538</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="3">
         <v>59.36650000000001</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="3">
         <v>59.2308</v>
       </c>
-      <c r="AG6" s="2">
-        <v>250.22</v>
+      <c r="AG6" s="3">
+        <v>50.4236</v>
       </c>
       <c r="AH6" s="3">
-        <v>-149.205</v>
+        <v>51.2676</v>
       </c>
       <c r="AI6">
         <v>4.93975</v>
@@ -1864,11 +1877,11 @@
       <c r="AL6">
         <v>4.77389</v>
       </c>
-      <c r="AM6" s="3">
-        <v>0.82765</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>-1.38799</v>
+      <c r="AM6">
+        <v>4.1071</v>
+      </c>
+      <c r="AN6">
+        <v>4.03948</v>
       </c>
       <c r="AO6" s="4">
         <v>55.2013</v>
@@ -1945,106 +1958,106 @@
     </row>
     <row r="7" spans="1:64">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S7" t="s">
-        <v>113</v>
-      </c>
-      <c r="T7">
-        <v>300.87</v>
-      </c>
-      <c r="U7">
-        <v>304.777</v>
-      </c>
-      <c r="V7">
-        <v>302.823</v>
-      </c>
-      <c r="W7">
-        <v>305.217</v>
-      </c>
-      <c r="X7">
-        <v>308.839</v>
-      </c>
-      <c r="Y7">
-        <v>307.028</v>
-      </c>
-      <c r="Z7">
-        <v>207.265</v>
-      </c>
-      <c r="AA7">
-        <v>210.57</v>
-      </c>
-      <c r="AB7">
-        <v>208.917</v>
-      </c>
-      <c r="AC7" s="2">
+        <v>114</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC7" s="3">
         <v>56.891</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="3">
         <v>55.66520000000001</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="3">
         <v>58.3145</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="3">
         <v>57.3135</v>
       </c>
-      <c r="AG7" s="2">
-        <v>246.319</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>-153.085</v>
+      <c r="AG7" s="4">
+        <v>46.817</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>-153.124</v>
       </c>
       <c r="AI7">
         <v>5.24149</v>
@@ -2058,11 +2071,11 @@
       <c r="AL7">
         <v>5.11293</v>
       </c>
-      <c r="AM7" s="3">
-        <v>0.842665</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>-1.35587</v>
+      <c r="AM7">
+        <v>4.43352</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>-1.35553</v>
       </c>
       <c r="AO7">
         <v>52.004</v>
@@ -2139,106 +2152,106 @@
     </row>
     <row r="8" spans="1:64">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S8" t="s">
-        <v>115</v>
-      </c>
-      <c r="T8">
-        <v>297.974</v>
-      </c>
-      <c r="U8">
-        <v>302.018</v>
-      </c>
-      <c r="V8">
-        <v>299.996</v>
-      </c>
-      <c r="W8">
-        <v>302.363</v>
-      </c>
-      <c r="X8">
-        <v>306.091</v>
-      </c>
-      <c r="Y8">
-        <v>304.227</v>
-      </c>
-      <c r="Z8">
-        <v>204.608</v>
-      </c>
-      <c r="AA8">
-        <v>207.79</v>
-      </c>
-      <c r="AB8">
-        <v>206.199</v>
-      </c>
-      <c r="AC8" s="2">
+        <v>116</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC8" s="3">
         <v>57.1005</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="3">
         <v>55.6451</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="3">
         <v>58.4395</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="3">
         <v>57.1786</v>
       </c>
-      <c r="AG8" s="2">
-        <v>246.119</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>-153.745</v>
+      <c r="AG8" s="4">
+        <v>46.5732</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>-153.702</v>
       </c>
       <c r="AI8">
         <v>5.53358</v>
@@ -2252,11 +2265,11 @@
       <c r="AL8">
         <v>5.4191</v>
       </c>
-      <c r="AM8" s="3">
-        <v>0.886649</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>-1.41937</v>
+      <c r="AM8">
+        <v>4.68555</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>-1.41977</v>
       </c>
       <c r="AO8">
         <v>52.0682</v>
@@ -2333,55 +2346,55 @@
     </row>
     <row r="9" spans="1:64">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R9" t="s">
         <v>77</v>
@@ -2389,50 +2402,50 @@
       <c r="S9" t="s">
         <v>77</v>
       </c>
-      <c r="T9">
-        <v>308.067</v>
-      </c>
-      <c r="U9">
-        <v>312.023</v>
-      </c>
-      <c r="V9">
-        <v>310.045</v>
-      </c>
-      <c r="W9">
-        <v>312.416</v>
-      </c>
-      <c r="X9">
-        <v>316.14</v>
-      </c>
-      <c r="Y9">
-        <v>314.278</v>
-      </c>
-      <c r="Z9">
-        <v>214.577</v>
-      </c>
-      <c r="AA9">
-        <v>217.684</v>
-      </c>
-      <c r="AB9">
-        <v>216.131</v>
-      </c>
-      <c r="AC9" s="2">
+      <c r="T9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC9" s="3">
         <v>56.3912</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="3">
         <v>54.7062</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9" s="3">
         <v>57.8259</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="3">
         <v>56.4087</v>
       </c>
-      <c r="AG9" s="2">
-        <v>246.106</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>-153.697</v>
+      <c r="AG9" s="4">
+        <v>46.6018</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>-153.818</v>
       </c>
       <c r="AI9">
         <v>4.76294</v>
@@ -2446,11 +2459,11 @@
       <c r="AL9">
         <v>4.68489</v>
       </c>
-      <c r="AM9" s="3">
-        <v>0.76028</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>-1.2174</v>
+      <c r="AM9">
+        <v>4.01508</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>-1.21643</v>
       </c>
       <c r="AO9">
         <v>52.0492</v>
@@ -2527,106 +2540,106 @@
     </row>
     <row r="10" spans="1:64">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S10" t="s">
-        <v>113</v>
-      </c>
-      <c r="T10">
-        <v>307.815</v>
-      </c>
-      <c r="U10">
-        <v>311.838</v>
-      </c>
-      <c r="V10">
-        <v>309.827</v>
-      </c>
-      <c r="W10">
-        <v>312.13</v>
-      </c>
-      <c r="X10">
-        <v>315.879</v>
-      </c>
-      <c r="Y10">
-        <v>314.004</v>
-      </c>
-      <c r="Z10">
-        <v>214.315</v>
-      </c>
-      <c r="AA10">
-        <v>217.391</v>
-      </c>
-      <c r="AB10">
-        <v>215.853</v>
-      </c>
-      <c r="AC10" s="2">
+        <v>114</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC10" s="3">
         <v>57.4726</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="3">
         <v>55.1845</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="3">
         <v>58.78970000000001</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="3">
         <v>56.7595</v>
       </c>
-      <c r="AG10" s="2">
-        <v>246.424</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>-153.72</v>
+      <c r="AG10" s="4">
+        <v>46.9541</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>-153.73</v>
       </c>
       <c r="AI10">
         <v>4.8448</v>
@@ -2640,11 +2653,11 @@
       <c r="AL10">
         <v>4.81453</v>
       </c>
-      <c r="AM10" s="3">
-        <v>0.782112</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>-1.25378</v>
+      <c r="AM10">
+        <v>4.10468</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>-1.2537</v>
       </c>
       <c r="AO10">
         <v>52.1011</v>
@@ -2915,52 +2928,52 @@
     </row>
     <row r="12" spans="1:64" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T12" s="1">
-        <v>297.974</v>
-      </c>
-      <c r="U12" s="1">
-        <v>302.018</v>
-      </c>
-      <c r="V12" s="1">
-        <v>299.996</v>
-      </c>
-      <c r="W12" s="1">
-        <v>302.363</v>
-      </c>
-      <c r="X12" s="1">
-        <v>306.091</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>304.227</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>204.608</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>207.79</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>206.199</v>
-      </c>
-      <c r="AC12" s="2">
+        <v>119</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC12" s="3">
         <v>55.6461</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12" s="3">
         <v>52.1934</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12" s="3">
         <v>56.818</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12" s="3">
         <v>53.6314</v>
       </c>
-      <c r="AG12" s="2">
-        <v>246.106</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>-154.409</v>
+      <c r="AG12" s="5">
+        <v>-152.862</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>-153.862</v>
       </c>
       <c r="AI12" s="1">
         <v>4.76294</v>
@@ -2974,11 +2987,11 @@
       <c r="AL12" s="1">
         <v>4.57145</v>
       </c>
-      <c r="AM12" s="3">
-        <v>0.76028</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>-1.41937</v>
+      <c r="AM12" s="5">
+        <v>-1.42633</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>-1.41977</v>
       </c>
       <c r="AO12" s="1">
         <v>51.8658</v>
@@ -3055,52 +3068,52 @@
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1">
       <c r="S13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T13" s="1">
-        <v>451.507</v>
-      </c>
-      <c r="U13" s="1">
-        <v>461.724</v>
-      </c>
-      <c r="V13" s="1">
-        <v>456.615</v>
-      </c>
-      <c r="W13" s="1">
-        <v>455.653</v>
-      </c>
-      <c r="X13" s="1">
-        <v>465.575</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>460.614</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>357.786</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>367.057</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>362.422</v>
-      </c>
-      <c r="AC13" s="2">
+        <v>121</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC13" s="3">
         <v>57.9549</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13" s="3">
         <v>59.4282</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AE13" s="3">
         <v>59.4901</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AF13" s="3">
         <v>61.3126</v>
       </c>
-      <c r="AG13" s="2">
-        <v>250.22</v>
+      <c r="AG13" s="3">
+        <v>50.4236</v>
       </c>
       <c r="AH13" s="3">
-        <v>-149.205</v>
+        <v>51.2676</v>
       </c>
       <c r="AI13" s="1">
         <v>5.6909</v>
@@ -3114,11 +3127,11 @@
       <c r="AL13" s="1">
         <v>5.60966</v>
       </c>
-      <c r="AM13" s="3">
-        <v>0.886649</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>-1.2174</v>
+      <c r="AM13" s="1">
+        <v>4.68555</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>4.77089</v>
       </c>
       <c r="AO13" s="4">
         <v>55.2013</v>
@@ -3195,7 +3208,7 @@
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1">
       <c r="S14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="T14" s="1">
         <v>500.0000000000001</v>
@@ -3272,7 +3285,7 @@
     </row>
     <row r="15" spans="1:64" s="1" customFormat="1">
       <c r="S15" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -3349,7 +3362,7 @@
     </row>
     <row r="16" spans="1:64" s="1" customFormat="1">
       <c r="S16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC16" s="1">
         <v>20</v>
@@ -3399,7 +3412,7 @@
     </row>
     <row r="17" spans="19:64" s="1" customFormat="1">
       <c r="S17" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC17" s="1">
         <v>0</v>
@@ -3449,34 +3462,34 @@
     </row>
     <row r="18" spans="19:64" s="1" customFormat="1">
       <c r="S18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T18" s="1">
-        <v>353.7638888888889</v>
-      </c>
-      <c r="U18" s="1">
-        <v>359.4236666666667</v>
-      </c>
-      <c r="V18" s="1">
-        <v>356.5937777777778</v>
-      </c>
-      <c r="W18" s="1">
-        <v>358.048</v>
-      </c>
-      <c r="X18" s="1">
-        <v>363.4506666666667</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>360.7493333333333</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>260.4744444444444</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>264.6538888888889</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>262.5642222222222</v>
+        <v>126</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="AC18" s="1">
         <v>57.09635555555557</v>
@@ -3491,10 +3504,10 @@
         <v>57.56322222222222</v>
       </c>
       <c r="AG18" s="1">
-        <v>247.0215555555556</v>
+        <v>25.2517</v>
       </c>
       <c r="AH18" s="1">
-        <v>-152.8576666666667</v>
+        <v>-63.98994444444444</v>
       </c>
       <c r="AI18" s="1">
         <v>5.171057777777778</v>
@@ -3509,10 +3522,10 @@
         <v>5.054328888888889</v>
       </c>
       <c r="AM18" s="1">
-        <v>0.8324481111111112</v>
+        <v>3.662095555555555</v>
       </c>
       <c r="AN18" s="1">
-        <v>-1.345238888888889</v>
+        <v>1.218557777777778</v>
       </c>
       <c r="AO18" s="1">
         <v>52.92511111111111</v>
@@ -3589,34 +3602,34 @@
     </row>
     <row r="19" spans="19:64" s="1" customFormat="1">
       <c r="S19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T19" s="1">
-        <v>62.64286569194266</v>
-      </c>
-      <c r="U19" s="1">
-        <v>65.22405215358314</v>
-      </c>
-      <c r="V19" s="1">
-        <v>63.93271931366214</v>
-      </c>
-      <c r="W19" s="1">
-        <v>62.59277810844742</v>
-      </c>
-      <c r="X19" s="1">
-        <v>65.14981321709391</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>63.87069812780611</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>62.96973251599375</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>64.77513309123846</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>63.86877048340394</v>
+        <v>127</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="AC19" s="1">
         <v>0.6907438037862781</v>
@@ -3631,10 +3644,10 @@
         <v>2.213373764579401</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.384801719550181</v>
+        <v>62.98513202965707</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.823274465838258</v>
+        <v>100.2565463061098</v>
       </c>
       <c r="AI19" s="1">
         <v>0.3172945898890169</v>
@@ -3649,10 +3662,10 @@
         <v>0.3399602693598325</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.04220455154612922</v>
+        <v>1.813505665163538</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.0658407635375675</v>
+        <v>2.845677953703662</v>
       </c>
       <c r="AO19" s="1">
         <v>1.316767842901233</v>
@@ -3729,34 +3742,34 @@
     </row>
     <row r="20" spans="19:64" s="1" customFormat="1">
       <c r="S20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T20" s="1">
-        <v>17.70753535322473</v>
-      </c>
-      <c r="U20" s="1">
-        <v>18.14684401794626</v>
-      </c>
-      <c r="V20" s="1">
-        <v>17.92872542871563</v>
-      </c>
-      <c r="W20" s="1">
-        <v>17.48167232003738</v>
-      </c>
-      <c r="X20" s="1">
-        <v>17.92535251471834</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>17.70500794489048</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>24.17501365644503</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>24.47541328910279</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>24.32500892271162</v>
+        <v>128</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="AC20" s="1">
         <v>1.209786153713742</v>
@@ -3771,10 +3784,10 @@
         <v>3.845117905378359</v>
       </c>
       <c r="AG20" s="1">
-        <v>0.5605995462362541</v>
+        <v>249.4292741861224</v>
       </c>
       <c r="AH20" s="1">
-        <v>1.192792292070133</v>
+        <v>156.6754701485196</v>
       </c>
       <c r="AI20" s="1">
         <v>6.135970695445832</v>
@@ -3789,10 +3802,10 @@
         <v>6.726120852704685</v>
       </c>
       <c r="AM20" s="1">
-        <v>5.069931805094331</v>
+        <v>49.5209815705757</v>
       </c>
       <c r="AN20" s="1">
-        <v>4.894354755975663</v>
+        <v>233.5283566851611</v>
       </c>
       <c r="AO20" s="1">
         <v>2.487983143080811</v>
